--- a/Research Data - Cicle 5 - RQ1 Analysis.xlsx
+++ b/Research Data - Cicle 5 - RQ1 Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d9f911737ca83ec/Documentos/Pesquisas/Abdias/RSL/Consolidados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3683" documentId="8_{E9EBBEBA-5F60-4EBE-9650-A22800841437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{404E14D9-B73D-4FB9-BCB1-EA83ABA1BA86}"/>
+  <xr:revisionPtr revIDLastSave="3698" documentId="8_{E9EBBEBA-5F60-4EBE-9650-A22800841437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB42C746-84B8-45FB-892A-F83CA5EA2841}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{5FD4573E-C21F-43B4-B79A-B2BC1F6B83CF}"/>
   </bookViews>
@@ -15148,32 +15148,6 @@
     <t>Unificado com a IR55</t>
   </si>
   <si>
-    <r>
-      <t>IR33 - combinação de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> inserção de dados manuais de foto, vídeo, texto e áudio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sobre um obstáculo enfrentado pelos usuários durante suas rotas, melhorando cenários de crowdsourcing [P47_S1; P763_S1; P934_S3; P1499_S1; P1499_S2; P1513_S1; P1461_S1; P1409_S2]</t>
-    </r>
-  </si>
-  <si>
     <t>Unificado com a IR12</t>
   </si>
   <si>
@@ -16591,6 +16565,32 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <r>
+      <t>IR33 - combinação de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inserção de dados manuais de foto, vídeo, texto e áudio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sobre um obstáculo enfrentado pelos usuários durante suas rotas, melhorando cenários de crowdsourcing [P47_S1; P763_S1; P934_S3; P1499_S1; P1499_S2; P1513_S1; P1461_S1]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -16697,10 +16697,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18069,7 +18065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46614E7-4B4B-4D71-BBD7-0A360649AC0E}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18082,22 +18080,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18105,19 +18103,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
         <v>406</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>407</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" t="s">
         <v>408</v>
-      </c>
-      <c r="E2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -18125,19 +18123,19 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" t="s">
         <v>411</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>412</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" t="s">
         <v>413</v>
-      </c>
-      <c r="E3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -18145,19 +18143,19 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" t="s">
         <v>416</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>417</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" t="s">
         <v>418</v>
-      </c>
-      <c r="E4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18165,19 +18163,19 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" t="s">
         <v>421</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>422</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" t="s">
         <v>423</v>
-      </c>
-      <c r="E5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -18185,19 +18183,19 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" t="s">
         <v>426</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>427</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6" t="s">
         <v>428</v>
-      </c>
-      <c r="E6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -18205,19 +18203,19 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
         <v>431</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" t="s">
         <v>433</v>
-      </c>
-      <c r="E7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
@@ -18225,19 +18223,19 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" t="s">
         <v>436</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>437</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -18245,19 +18243,19 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" t="s">
         <v>441</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>442</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9" t="s">
         <v>443</v>
-      </c>
-      <c r="E9" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -18265,19 +18263,19 @@
         <v>104</v>
       </c>
       <c r="B10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" t="s">
         <v>446</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>447</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" t="s">
         <v>448</v>
-      </c>
-      <c r="E10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -18285,19 +18283,19 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" t="s">
         <v>451</v>
       </c>
-      <c r="C11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" t="s">
         <v>452</v>
-      </c>
-      <c r="E11" t="s">
-        <v>454</v>
-      </c>
-      <c r="F11" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -18305,19 +18303,19 @@
         <v>648</v>
       </c>
       <c r="B12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" t="s">
         <v>455</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" t="s">
         <v>457</v>
-      </c>
-      <c r="E12" t="s">
-        <v>459</v>
-      </c>
-      <c r="F12" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -18325,19 +18323,19 @@
         <v>763</v>
       </c>
       <c r="B13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" t="s">
         <v>460</v>
       </c>
-      <c r="C13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" t="s">
         <v>461</v>
-      </c>
-      <c r="E13" t="s">
-        <v>463</v>
-      </c>
-      <c r="F13" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -18345,19 +18343,19 @@
         <v>784</v>
       </c>
       <c r="B14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" t="s">
         <v>464</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>465</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>467</v>
+      </c>
+      <c r="F14" t="s">
         <v>466</v>
-      </c>
-      <c r="E14" t="s">
-        <v>468</v>
-      </c>
-      <c r="F14" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -18365,19 +18363,19 @@
         <v>810</v>
       </c>
       <c r="B15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" t="s">
         <v>469</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>470</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -18385,19 +18383,19 @@
         <v>826</v>
       </c>
       <c r="B16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" t="s">
         <v>474</v>
       </c>
-      <c r="C16" t="s">
-        <v>442</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16" t="s">
         <v>475</v>
-      </c>
-      <c r="E16" t="s">
-        <v>477</v>
-      </c>
-      <c r="F16" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -18405,19 +18403,19 @@
         <v>846</v>
       </c>
       <c r="B17" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" t="s">
         <v>478</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>479</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>481</v>
+      </c>
+      <c r="F17" t="s">
         <v>480</v>
-      </c>
-      <c r="E17" t="s">
-        <v>482</v>
-      </c>
-      <c r="F17" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -18425,19 +18423,19 @@
         <v>850</v>
       </c>
       <c r="B18" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" t="s">
         <v>483</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>484</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -18445,19 +18443,19 @@
         <v>858</v>
       </c>
       <c r="B19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" t="s">
         <v>488</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>489</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>491</v>
+      </c>
+      <c r="F19" t="s">
         <v>490</v>
-      </c>
-      <c r="E19" t="s">
-        <v>492</v>
-      </c>
-      <c r="F19" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -18465,19 +18463,19 @@
         <v>859</v>
       </c>
       <c r="B20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" t="s">
         <v>493</v>
       </c>
-      <c r="C20" t="s">
-        <v>442</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20" t="s">
         <v>494</v>
-      </c>
-      <c r="E20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F20" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -18485,19 +18483,19 @@
         <v>865</v>
       </c>
       <c r="B21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D21" t="s">
         <v>497</v>
       </c>
-      <c r="C21" t="s">
-        <v>427</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F21" t="s">
         <v>498</v>
-      </c>
-      <c r="E21" t="s">
-        <v>500</v>
-      </c>
-      <c r="F21" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -18505,19 +18503,19 @@
         <v>869</v>
       </c>
       <c r="B22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" t="s">
         <v>501</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>502</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" t="s">
         <v>503</v>
-      </c>
-      <c r="E22" t="s">
-        <v>505</v>
-      </c>
-      <c r="F22" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -18525,19 +18523,19 @@
         <v>899</v>
       </c>
       <c r="B23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" t="s">
         <v>506</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>507</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>509</v>
+      </c>
+      <c r="F23" t="s">
         <v>508</v>
-      </c>
-      <c r="E23" t="s">
-        <v>510</v>
-      </c>
-      <c r="F23" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -18545,19 +18543,19 @@
         <v>913</v>
       </c>
       <c r="B24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" t="s">
         <v>511</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>512</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -18565,19 +18563,19 @@
         <v>926</v>
       </c>
       <c r="B25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" t="s">
         <v>516</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>517</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>519</v>
+      </c>
+      <c r="F25" t="s">
         <v>518</v>
-      </c>
-      <c r="E25" t="s">
-        <v>520</v>
-      </c>
-      <c r="F25" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -18585,19 +18583,19 @@
         <v>928</v>
       </c>
       <c r="B26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C26" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" t="s">
         <v>521</v>
       </c>
-      <c r="C26" t="s">
-        <v>442</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -18605,19 +18603,19 @@
         <v>934</v>
       </c>
       <c r="B27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" t="s">
         <v>525</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>526</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>528</v>
+      </c>
+      <c r="F27" t="s">
         <v>527</v>
-      </c>
-      <c r="E27" t="s">
-        <v>529</v>
-      </c>
-      <c r="F27" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -18625,19 +18623,19 @@
         <v>948</v>
       </c>
       <c r="B28" t="s">
+        <v>529</v>
+      </c>
+      <c r="C28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" t="s">
         <v>530</v>
       </c>
-      <c r="C28" t="s">
-        <v>417</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>532</v>
+      </c>
+      <c r="F28" t="s">
         <v>531</v>
-      </c>
-      <c r="E28" t="s">
-        <v>533</v>
-      </c>
-      <c r="F28" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -18645,19 +18643,19 @@
         <v>953</v>
       </c>
       <c r="B29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" t="s">
         <v>534</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>535</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -18665,19 +18663,19 @@
         <v>969</v>
       </c>
       <c r="B30" t="s">
+        <v>538</v>
+      </c>
+      <c r="C30" t="s">
         <v>539</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>540</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>542</v>
+      </c>
+      <c r="F30" t="s">
         <v>541</v>
-      </c>
-      <c r="E30" t="s">
-        <v>543</v>
-      </c>
-      <c r="F30" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -18685,19 +18683,19 @@
         <v>972</v>
       </c>
       <c r="B31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C31" t="s">
         <v>544</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>545</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -18705,19 +18703,19 @@
         <v>983</v>
       </c>
       <c r="B32" t="s">
+        <v>548</v>
+      </c>
+      <c r="C32" t="s">
         <v>549</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>550</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>552</v>
+      </c>
+      <c r="F32" t="s">
         <v>551</v>
-      </c>
-      <c r="E32" t="s">
-        <v>553</v>
-      </c>
-      <c r="F32" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -18725,19 +18723,19 @@
         <v>986</v>
       </c>
       <c r="B33" t="s">
+        <v>553</v>
+      </c>
+      <c r="C33" t="s">
         <v>554</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>555</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>557</v>
+      </c>
+      <c r="F33" t="s">
         <v>556</v>
-      </c>
-      <c r="E33" t="s">
-        <v>558</v>
-      </c>
-      <c r="F33" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -18745,19 +18743,19 @@
         <v>990</v>
       </c>
       <c r="B34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C34" t="s">
         <v>559</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>560</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>562</v>
+      </c>
+      <c r="F34" t="s">
         <v>561</v>
-      </c>
-      <c r="E34" t="s">
-        <v>563</v>
-      </c>
-      <c r="F34" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -18765,19 +18763,19 @@
         <v>999</v>
       </c>
       <c r="B35" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" t="s">
         <v>564</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>565</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>567</v>
+      </c>
+      <c r="F35" t="s">
         <v>566</v>
-      </c>
-      <c r="E35" t="s">
-        <v>568</v>
-      </c>
-      <c r="F35" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -18785,19 +18783,19 @@
         <v>1021</v>
       </c>
       <c r="B36" t="s">
+        <v>568</v>
+      </c>
+      <c r="C36" t="s">
         <v>569</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>570</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>572</v>
+      </c>
+      <c r="F36" t="s">
         <v>571</v>
-      </c>
-      <c r="E36" t="s">
-        <v>573</v>
-      </c>
-      <c r="F36" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -18805,19 +18803,19 @@
         <v>1023</v>
       </c>
       <c r="B37" t="s">
+        <v>573</v>
+      </c>
+      <c r="C37" t="s">
         <v>574</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>575</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>577</v>
+      </c>
+      <c r="F37" t="s">
         <v>576</v>
-      </c>
-      <c r="E37" t="s">
-        <v>578</v>
-      </c>
-      <c r="F37" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -18825,19 +18823,19 @@
         <v>1093</v>
       </c>
       <c r="B38" t="s">
+        <v>578</v>
+      </c>
+      <c r="C38" t="s">
         <v>579</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>580</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>582</v>
+      </c>
+      <c r="F38" t="s">
         <v>581</v>
-      </c>
-      <c r="E38" t="s">
-        <v>583</v>
-      </c>
-      <c r="F38" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -18845,19 +18843,19 @@
         <v>1408</v>
       </c>
       <c r="B39" t="s">
+        <v>583</v>
+      </c>
+      <c r="C39" t="s">
         <v>584</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>585</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>587</v>
+      </c>
+      <c r="F39" t="s">
         <v>586</v>
-      </c>
-      <c r="E39" t="s">
-        <v>588</v>
-      </c>
-      <c r="F39" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -18865,19 +18863,19 @@
         <v>1351</v>
       </c>
       <c r="B40" t="s">
+        <v>588</v>
+      </c>
+      <c r="C40" t="s">
         <v>589</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>590</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>592</v>
+      </c>
+      <c r="F40" t="s">
         <v>591</v>
-      </c>
-      <c r="E40" t="s">
-        <v>593</v>
-      </c>
-      <c r="F40" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -18885,19 +18883,19 @@
         <v>1376</v>
       </c>
       <c r="B41" t="s">
+        <v>593</v>
+      </c>
+      <c r="C41" t="s">
         <v>594</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>595</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>597</v>
+      </c>
+      <c r="F41" t="s">
         <v>596</v>
-      </c>
-      <c r="E41" t="s">
-        <v>598</v>
-      </c>
-      <c r="F41" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -18905,19 +18903,19 @@
         <v>1389</v>
       </c>
       <c r="B42" t="s">
+        <v>598</v>
+      </c>
+      <c r="C42" t="s">
         <v>599</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>600</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>602</v>
+      </c>
+      <c r="F42" t="s">
         <v>601</v>
-      </c>
-      <c r="E42" t="s">
-        <v>603</v>
-      </c>
-      <c r="F42" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -18925,19 +18923,19 @@
         <v>1393</v>
       </c>
       <c r="B43" t="s">
+        <v>603</v>
+      </c>
+      <c r="C43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D43" t="s">
         <v>604</v>
       </c>
-      <c r="C43" t="s">
-        <v>442</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>606</v>
+      </c>
+      <c r="F43" t="s">
         <v>605</v>
-      </c>
-      <c r="E43" t="s">
-        <v>607</v>
-      </c>
-      <c r="F43" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -18945,19 +18943,19 @@
         <v>1454</v>
       </c>
       <c r="B44" t="s">
+        <v>607</v>
+      </c>
+      <c r="C44" t="s">
         <v>608</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>609</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -18965,19 +18963,19 @@
         <v>1461</v>
       </c>
       <c r="B45" t="s">
+        <v>612</v>
+      </c>
+      <c r="C45" t="s">
         <v>613</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>614</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>616</v>
+      </c>
+      <c r="F45" t="s">
         <v>615</v>
-      </c>
-      <c r="E45" t="s">
-        <v>617</v>
-      </c>
-      <c r="F45" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -18985,19 +18983,19 @@
         <v>1464</v>
       </c>
       <c r="B46" t="s">
+        <v>617</v>
+      </c>
+      <c r="C46" t="s">
+        <v>574</v>
+      </c>
+      <c r="D46" t="s">
         <v>618</v>
       </c>
-      <c r="C46" t="s">
-        <v>575</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>620</v>
+      </c>
+      <c r="F46" t="s">
         <v>619</v>
-      </c>
-      <c r="E46" t="s">
-        <v>621</v>
-      </c>
-      <c r="F46" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -19005,19 +19003,19 @@
         <v>1469</v>
       </c>
       <c r="B47" t="s">
+        <v>621</v>
+      </c>
+      <c r="C47" t="s">
         <v>622</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>623</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -19025,19 +19023,19 @@
         <v>1474</v>
       </c>
       <c r="B48" t="s">
+        <v>626</v>
+      </c>
+      <c r="C48" t="s">
         <v>627</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>628</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>630</v>
+      </c>
+      <c r="F48" t="s">
         <v>629</v>
-      </c>
-      <c r="E48" t="s">
-        <v>631</v>
-      </c>
-      <c r="F48" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -19045,19 +19043,19 @@
         <v>1486</v>
       </c>
       <c r="B49" t="s">
+        <v>631</v>
+      </c>
+      <c r="C49" t="s">
+        <v>544</v>
+      </c>
+      <c r="D49" t="s">
         <v>632</v>
       </c>
-      <c r="C49" t="s">
-        <v>545</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>634</v>
+      </c>
+      <c r="F49" t="s">
         <v>633</v>
-      </c>
-      <c r="E49" t="s">
-        <v>635</v>
-      </c>
-      <c r="F49" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -19065,19 +19063,19 @@
         <v>1446</v>
       </c>
       <c r="B50" t="s">
+        <v>635</v>
+      </c>
+      <c r="C50" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" t="s">
         <v>636</v>
       </c>
-      <c r="C50" t="s">
-        <v>407</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>638</v>
+      </c>
+      <c r="F50" t="s">
         <v>637</v>
-      </c>
-      <c r="E50" t="s">
-        <v>639</v>
-      </c>
-      <c r="F50" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -19085,19 +19083,19 @@
         <v>1405</v>
       </c>
       <c r="B51" t="s">
+        <v>639</v>
+      </c>
+      <c r="C51" t="s">
         <v>640</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>641</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>643</v>
+      </c>
+      <c r="F51" t="s">
         <v>642</v>
-      </c>
-      <c r="E51" t="s">
-        <v>644</v>
-      </c>
-      <c r="F51" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -19105,19 +19103,19 @@
         <v>1409</v>
       </c>
       <c r="B52" t="s">
+        <v>644</v>
+      </c>
+      <c r="C52" t="s">
         <v>645</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>646</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>648</v>
+      </c>
+      <c r="F52" t="s">
         <v>647</v>
-      </c>
-      <c r="E52" t="s">
-        <v>649</v>
-      </c>
-      <c r="F52" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -19125,19 +19123,19 @@
         <v>1410</v>
       </c>
       <c r="B53" t="s">
+        <v>649</v>
+      </c>
+      <c r="C53" t="s">
         <v>650</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>651</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>653</v>
+      </c>
+      <c r="F53" t="s">
         <v>652</v>
-      </c>
-      <c r="E53" t="s">
-        <v>654</v>
-      </c>
-      <c r="F53" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -19145,19 +19143,19 @@
         <v>1445</v>
       </c>
       <c r="B54" t="s">
+        <v>654</v>
+      </c>
+      <c r="C54" t="s">
         <v>655</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>656</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F54" t="s">
         <v>657</v>
-      </c>
-      <c r="E54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F54" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -19165,19 +19163,19 @@
         <v>1415</v>
       </c>
       <c r="B55" t="s">
+        <v>659</v>
+      </c>
+      <c r="C55" t="s">
         <v>660</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>661</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>663</v>
+      </c>
+      <c r="F55" t="s">
         <v>662</v>
-      </c>
-      <c r="E55" t="s">
-        <v>664</v>
-      </c>
-      <c r="F55" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -19185,19 +19183,19 @@
         <v>1422</v>
       </c>
       <c r="B56" t="s">
+        <v>664</v>
+      </c>
+      <c r="C56" t="s">
         <v>665</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>666</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>668</v>
+      </c>
+      <c r="F56" t="s">
         <v>667</v>
-      </c>
-      <c r="E56" t="s">
-        <v>669</v>
-      </c>
-      <c r="F56" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -19205,19 +19203,19 @@
         <v>1442</v>
       </c>
       <c r="B57" t="s">
+        <v>669</v>
+      </c>
+      <c r="C57" t="s">
+        <v>655</v>
+      </c>
+      <c r="D57" t="s">
         <v>670</v>
       </c>
-      <c r="C57" t="s">
-        <v>656</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>672</v>
+      </c>
+      <c r="F57" t="s">
         <v>671</v>
-      </c>
-      <c r="E57" t="s">
-        <v>673</v>
-      </c>
-      <c r="F57" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -19225,19 +19223,19 @@
         <v>1443</v>
       </c>
       <c r="B58" t="s">
+        <v>673</v>
+      </c>
+      <c r="C58" t="s">
         <v>674</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>675</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
@@ -19245,19 +19243,19 @@
         <v>1491</v>
       </c>
       <c r="B59" t="s">
+        <v>678</v>
+      </c>
+      <c r="C59" t="s">
+        <v>416</v>
+      </c>
+      <c r="D59" t="s">
         <v>679</v>
       </c>
-      <c r="C59" t="s">
-        <v>417</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -19265,19 +19263,19 @@
         <v>1497</v>
       </c>
       <c r="B60" t="s">
+        <v>682</v>
+      </c>
+      <c r="C60" t="s">
         <v>683</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>684</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>686</v>
+      </c>
+      <c r="F60" t="s">
         <v>685</v>
-      </c>
-      <c r="E60" t="s">
-        <v>687</v>
-      </c>
-      <c r="F60" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -19285,19 +19283,19 @@
         <v>1499</v>
       </c>
       <c r="B61" t="s">
+        <v>687</v>
+      </c>
+      <c r="C61" t="s">
         <v>688</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>689</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>691</v>
+      </c>
+      <c r="F61" t="s">
         <v>690</v>
-      </c>
-      <c r="E61" t="s">
-        <v>692</v>
-      </c>
-      <c r="F61" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -19305,19 +19303,19 @@
         <v>1504</v>
       </c>
       <c r="B62" t="s">
+        <v>692</v>
+      </c>
+      <c r="C62" t="s">
+        <v>627</v>
+      </c>
+      <c r="D62" t="s">
         <v>693</v>
       </c>
-      <c r="C62" t="s">
-        <v>628</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -19325,19 +19323,19 @@
         <v>1513</v>
       </c>
       <c r="B63" t="s">
+        <v>696</v>
+      </c>
+      <c r="C63" t="s">
         <v>697</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>698</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>700</v>
+      </c>
+      <c r="F63" t="s">
         <v>699</v>
-      </c>
-      <c r="E63" t="s">
-        <v>701</v>
-      </c>
-      <c r="F63" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -19345,19 +19343,19 @@
         <v>1517</v>
       </c>
       <c r="B64" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" t="s">
         <v>702</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>703</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>705</v>
+      </c>
+      <c r="F64" t="s">
         <v>704</v>
-      </c>
-      <c r="E64" t="s">
-        <v>706</v>
-      </c>
-      <c r="F64" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -19365,19 +19363,19 @@
         <v>1518</v>
       </c>
       <c r="B65" t="s">
+        <v>706</v>
+      </c>
+      <c r="C65" t="s">
         <v>707</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>604</v>
+      </c>
+      <c r="E65" t="s">
+        <v>709</v>
+      </c>
+      <c r="F65" t="s">
         <v>708</v>
-      </c>
-      <c r="D65" t="s">
-        <v>605</v>
-      </c>
-      <c r="E65" t="s">
-        <v>710</v>
-      </c>
-      <c r="F65" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -19385,19 +19383,19 @@
         <v>1521</v>
       </c>
       <c r="B66" t="s">
+        <v>710</v>
+      </c>
+      <c r="C66" t="s">
         <v>711</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>712</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>714</v>
+      </c>
+      <c r="F66" t="s">
         <v>713</v>
-      </c>
-      <c r="E66" t="s">
-        <v>715</v>
-      </c>
-      <c r="F66" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -19405,19 +19403,19 @@
         <v>1525</v>
       </c>
       <c r="B67" t="s">
+        <v>715</v>
+      </c>
+      <c r="C67" t="s">
         <v>716</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>717</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>719</v>
+      </c>
+      <c r="F67" t="s">
         <v>718</v>
-      </c>
-      <c r="E67" t="s">
-        <v>720</v>
-      </c>
-      <c r="F67" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -19425,19 +19423,19 @@
         <v>1527</v>
       </c>
       <c r="B68" t="s">
+        <v>720</v>
+      </c>
+      <c r="C68" t="s">
         <v>721</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>722</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>724</v>
+      </c>
+      <c r="F68" t="s">
         <v>723</v>
-      </c>
-      <c r="E68" t="s">
-        <v>725</v>
-      </c>
-      <c r="F68" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -19445,19 +19443,19 @@
         <v>1529</v>
       </c>
       <c r="B69" t="s">
+        <v>725</v>
+      </c>
+      <c r="C69" t="s">
         <v>726</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>727</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>729</v>
+      </c>
+      <c r="F69" t="s">
         <v>728</v>
-      </c>
-      <c r="E69" t="s">
-        <v>730</v>
-      </c>
-      <c r="F69" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -19465,19 +19463,19 @@
         <v>1531</v>
       </c>
       <c r="B70" t="s">
+        <v>730</v>
+      </c>
+      <c r="C70" t="s">
         <v>731</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>732</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>734</v>
+      </c>
+      <c r="F70" t="s">
         <v>733</v>
-      </c>
-      <c r="E70" t="s">
-        <v>735</v>
-      </c>
-      <c r="F70" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -19485,19 +19483,19 @@
         <v>1535</v>
       </c>
       <c r="B71" t="s">
+        <v>735</v>
+      </c>
+      <c r="C71" t="s">
         <v>736</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>737</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>739</v>
+      </c>
+      <c r="F71" t="s">
         <v>738</v>
-      </c>
-      <c r="E71" t="s">
-        <v>740</v>
-      </c>
-      <c r="F71" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -19505,19 +19503,19 @@
         <v>1536</v>
       </c>
       <c r="B72" t="s">
+        <v>740</v>
+      </c>
+      <c r="C72" t="s">
+        <v>506</v>
+      </c>
+      <c r="D72" t="s">
         <v>741</v>
       </c>
-      <c r="C72" t="s">
-        <v>507</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>743</v>
+      </c>
+      <c r="F72" t="s">
         <v>742</v>
-      </c>
-      <c r="E72" t="s">
-        <v>744</v>
-      </c>
-      <c r="F72" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -19525,19 +19523,19 @@
         <v>1584</v>
       </c>
       <c r="B73" t="s">
+        <v>744</v>
+      </c>
+      <c r="C73" t="s">
         <v>745</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>746</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>748</v>
+      </c>
+      <c r="F73" t="s">
         <v>747</v>
-      </c>
-      <c r="E73" t="s">
-        <v>749</v>
-      </c>
-      <c r="F73" t="s">
-        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -19549,8 +19547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58793F21-D971-4EE3-9A07-CA00EE64BDE5}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19565,13 +19563,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D1" s="6" t="str">
         <f>_xlfn.TRANSLATE(A1,"pt","en")</f>
@@ -19588,7 +19586,7 @@
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>292</v>
@@ -19628,7 +19626,7 @@
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>292</v>
@@ -19808,7 +19806,7 @@
     </row>
     <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>302</v>
@@ -20031,7 +20029,7 @@
         <v>313</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20051,7 +20049,7 @@
         <v>316</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20071,7 +20069,7 @@
         <v>327</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20088,10 +20086,10 @@
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20111,7 +20109,7 @@
         <v>336</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20131,7 +20129,7 @@
         <v>317</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20148,10 +20146,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20171,7 +20169,7 @@
         <v>383</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D31" s="4" t="str">
         <f>_xlfn.TRANSLATE(A31,"pt","en")</f>
@@ -20191,7 +20189,7 @@
         <v>308</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20211,7 +20209,7 @@
         <v>329</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20231,7 +20229,7 @@
         <v>330</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20251,7 +20249,7 @@
         <v>332</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20271,7 +20269,7 @@
         <v>333</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20291,7 +20289,7 @@
         <v>334</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20311,7 +20309,7 @@
         <v>380</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20328,10 +20326,10 @@
     </row>
     <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20351,7 +20349,7 @@
         <v>306</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20371,7 +20369,7 @@
         <v>314</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20391,7 +20389,7 @@
         <v>325</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20411,7 +20409,7 @@
         <v>382</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20431,7 +20429,7 @@
         <v>326</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20454,7 +20452,7 @@
         <v>372</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -20471,7 +20469,7 @@
     </row>
     <row r="46" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>291</v>
@@ -20497,7 +20495,7 @@
         <v>291</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TRANSLATE(A47,"pt","en")</f>
         <v>IR13 - artificial intelligence techniques (computer vision, machine learning and deep learning, convolutional neural network) for processing and labeling objects and spaces with or without accessibility [P0_S5; P986_S1; P1351_S1; P1393_S1; P1464_S1; P1049_S5; P1422_S2]</v>
       </c>
       <c r="E47" s="4" t="str">
@@ -20511,14 +20509,14 @@
     </row>
     <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>385</v>
+        <v>750</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>IR33 - combination of manual photo, video, text and audio data entry about an obstacle faced by users during their routes, improving crowdsourcing scenarios [P47_S1; P763_S1; P934_S3; P1499_S1; P1499_S2; P1513_S1; P1461_S1; P1409_S2]</v>
+        <v>IR33 - combination of manual photo, video, text and audio data entry about an obstacle faced by users during their routes, improving crowdsourcing scenarios [P47_S1; P763_S1; P934_S3; P1499_S1; P1499_S2; P1513_S1; P1461_S1]</v>
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" si="2"/>
@@ -20571,7 +20569,7 @@
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>371</v>
@@ -20611,7 +20609,7 @@
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>371</v>
@@ -20854,7 +20852,7 @@
         <v>338</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D65" s="4" t="str">
         <f>_xlfn.TRANSLATE(A65,"pt","en")</f>
@@ -21066,7 +21064,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -21075,7 +21073,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ref="B10:B11" si="1">_xlfn.TRANSLATE(A10,"pt","en")</f>
@@ -21084,7 +21082,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
